--- a/1. Application/2. Specifications/1. Data_Catalogue/Data Catalogue.xlsx
+++ b/1. Application/2. Specifications/1. Data_Catalogue/Data Catalogue.xlsx
@@ -315,6 +315,9 @@
     <t>description</t>
   </si>
   <si>
+    <t>VARCHAR2(250)</t>
+  </si>
+  <si>
     <t>The description of the certification</t>
   </si>
   <si>
@@ -343,9 +346,6 @@
   </si>
   <si>
     <t>website</t>
-  </si>
-  <si>
-    <t>VARCHAR2(250)</t>
   </si>
   <si>
     <t>The werbsite of the institution</t>
@@ -688,7 +688,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,6 +700,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -818,19 +824,19 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -872,7 +878,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1278,7 +1284,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>207</v>
@@ -1301,7 +1307,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>208</v>
@@ -10677,7 +10683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="32.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -11510,10 +11516,10 @@
         <v>95</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>21</v>
@@ -11960,16 +11966,16 @@
         <v>16</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>21</v>
@@ -12005,7 +12011,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>25</v>
@@ -12014,7 +12020,7 @@
         <v>53</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>21</v>
@@ -12050,7 +12056,7 @@
         <v>16</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>47</v>
@@ -12095,7 +12101,7 @@
         <v>16</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>52</v>
@@ -12140,7 +12146,7 @@
         <v>16</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>57</v>
@@ -12185,7 +12191,7 @@
         <v>16</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>59</v>
@@ -12230,7 +12236,7 @@
         <v>16</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>61</v>
@@ -12277,7 +12283,7 @@
         <v>16</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>66</v>
@@ -12324,7 +12330,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>70</v>
@@ -12369,7 +12375,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>73</v>
@@ -12414,7 +12420,7 @@
         <v>16</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>75</v>
@@ -12461,16 +12467,16 @@
         <v>16</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>21</v>
@@ -12506,7 +12512,7 @@
         <v>16</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>25</v>
@@ -12515,7 +12521,7 @@
         <v>82</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>21</v>
@@ -12551,13 +12557,13 @@
         <v>16</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>107</v>
@@ -12596,7 +12602,7 @@
         <v>16</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>108</v>
@@ -12641,7 +12647,7 @@
         <v>16</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>43</v>
@@ -12686,7 +12692,7 @@
         <v>16</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>95</v>
@@ -12731,7 +12737,7 @@
         <v>16</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>47</v>
@@ -12776,7 +12782,7 @@
         <v>16</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>52</v>
@@ -12821,7 +12827,7 @@
         <v>16</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>57</v>
@@ -12866,7 +12872,7 @@
         <v>16</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>59</v>
@@ -12911,7 +12917,7 @@
         <v>16</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>61</v>
@@ -12958,7 +12964,7 @@
         <v>16</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>66</v>
@@ -13005,7 +13011,7 @@
         <v>16</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>70</v>
@@ -13050,7 +13056,7 @@
         <v>16</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>73</v>
@@ -13095,7 +13101,7 @@
         <v>16</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>75</v>
@@ -13235,7 +13241,7 @@
         <v>115</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>19</v>
@@ -15142,7 +15148,7 @@
         <v>175</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>176</v>
@@ -15912,7 +15918,7 @@
         <v>194</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>19</v>

--- a/1. Application/2. Specifications/1. Data_Catalogue/Data Catalogue.xlsx
+++ b/1. Application/2. Specifications/1. Data_Catalogue/Data Catalogue.xlsx
@@ -342,6 +342,9 @@
     <t>The primary key of the institution table</t>
   </si>
   <si>
+    <t>VARCHAR2(200)</t>
+  </si>
+  <si>
     <t>The name of the institution</t>
   </si>
   <si>
@@ -379,9 +382,6 @@
   </si>
   <si>
     <t>The primary key of the specialization table</t>
-  </si>
-  <si>
-    <t>VARCHAR2(200)</t>
   </si>
   <si>
     <t>The name of the specialization</t>
@@ -1321,7 +1321,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>209</v>
@@ -12509,10 +12509,10 @@
         <v>25</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>21</v>
@@ -12551,13 +12551,13 @@
         <v>102</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>21</v>
@@ -12596,13 +12596,13 @@
         <v>102</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>21</v>
@@ -12647,7 +12647,7 @@
         <v>44</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>21</v>
@@ -12662,14 +12662,14 @@
         <v>23</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M50" s="10"/>
       <c r="N50" s="9" t="s">
         <v>22</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25">
@@ -12689,10 +12689,10 @@
         <v>95</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>21</v>
@@ -13139,16 +13139,16 @@
         <v>16</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>21</v>
@@ -13184,13 +13184,13 @@
         <v>16</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>119</v>
@@ -13229,7 +13229,7 @@
         <v>16</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>103</v>
@@ -13274,7 +13274,7 @@
         <v>16</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>43</v>
@@ -13319,7 +13319,7 @@
         <v>16</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>95</v>
@@ -13364,7 +13364,7 @@
         <v>16</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>125</v>
@@ -13409,7 +13409,7 @@
         <v>16</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>127</v>
@@ -13454,7 +13454,7 @@
         <v>16</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>129</v>
@@ -13499,7 +13499,7 @@
         <v>16</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>131</v>
@@ -13544,7 +13544,7 @@
         <v>16</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>133</v>
@@ -13589,7 +13589,7 @@
         <v>16</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>135</v>
@@ -13634,7 +13634,7 @@
         <v>16</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>47</v>
@@ -13679,7 +13679,7 @@
         <v>16</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>52</v>
@@ -13724,7 +13724,7 @@
         <v>16</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>57</v>
@@ -13769,7 +13769,7 @@
         <v>16</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>59</v>
@@ -13814,7 +13814,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>61</v>
@@ -13861,7 +13861,7 @@
         <v>16</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>66</v>
@@ -13908,7 +13908,7 @@
         <v>16</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>70</v>
@@ -13953,7 +13953,7 @@
         <v>16</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>73</v>
@@ -13998,7 +13998,7 @@
         <v>16</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>75</v>
@@ -14231,7 +14231,7 @@
         <v>146</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>147</v>
@@ -14276,7 +14276,7 @@
         <v>149</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>150</v>
@@ -14368,7 +14368,7 @@
         <v>155</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>156</v>
@@ -15392,7 +15392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="31.5">
       <c r="A111" s="6">
         <v>109</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="31.5">
       <c r="A116" s="6">
         <v>114</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="31.5">
       <c r="A119" s="6">
         <v>117</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="31.5">
       <c r="A120" s="6">
         <v>118</v>
       </c>
@@ -16120,7 +16120,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="31.5">
       <c r="A127" s="6">
         <v>125</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="31.5">
       <c r="A130" s="6">
         <v>128</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="31.5">
       <c r="A131" s="6">
         <v>129</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>200</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>19</v>

--- a/1. Application/2. Specifications/1. Data_Catalogue/Data Catalogue.xlsx
+++ b/1. Application/2. Specifications/1. Data_Catalogue/Data Catalogue.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="216">
   <si>
     <t>No.</t>
   </si>
@@ -357,10 +357,10 @@
     <t>founding_date</t>
   </si>
   <si>
-    <t>DATE</t>
+    <t>VARCHAR2(4)</t>
   </si>
   <si>
-    <t>The founding date of the institution</t>
+    <t>The founding year of the institution</t>
   </si>
   <si>
     <t>The rating of the institution</t>
@@ -504,6 +504,9 @@
   </si>
   <si>
     <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>DATE</t>
   </si>
   <si>
     <t>The birth date of the user</t>
@@ -1209,13 +1212,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="30">
@@ -1232,7 +1235,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>23</v>
@@ -1255,7 +1258,7 @@
         <v>79</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>23</v>
@@ -1278,7 +1281,7 @@
         <v>98</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>23</v>
@@ -1301,7 +1304,7 @@
         <v>102</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>23</v>
@@ -1324,7 +1327,7 @@
         <v>116</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>23</v>
@@ -1347,7 +1350,7 @@
         <v>137</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>23</v>
@@ -1367,10 +1370,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>23</v>
@@ -1390,10 +1393,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>23</v>
@@ -1413,10 +1416,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>23</v>
@@ -1436,10 +1439,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>23</v>
@@ -14368,10 +14371,10 @@
         <v>155</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>21</v>
@@ -14410,13 +14413,13 @@
         <v>137</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>21</v>
@@ -14455,13 +14458,13 @@
         <v>137</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>21</v>
@@ -14500,13 +14503,13 @@
         <v>137</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>21</v>
@@ -14545,13 +14548,13 @@
         <v>137</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>21</v>
@@ -14566,7 +14569,7 @@
         <v>23</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M92" s="10"/>
       <c r="N92" s="9" t="s">
@@ -14590,13 +14593,13 @@
         <v>137</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H93" s="9" t="s">
         <v>21</v>
@@ -14635,13 +14638,13 @@
         <v>137</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>21</v>
@@ -15088,16 +15091,16 @@
         <v>16</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>21</v>
@@ -15133,16 +15136,16 @@
         <v>16</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>21</v>
@@ -15157,7 +15160,7 @@
         <v>22</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M105" s="10"/>
       <c r="N105" s="9" t="s">
@@ -15178,16 +15181,16 @@
         <v>16</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>123</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H106" s="9" t="s">
         <v>21</v>
@@ -15202,7 +15205,7 @@
         <v>22</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M106" s="10"/>
       <c r="N106" s="9" t="s">
@@ -15223,16 +15226,16 @@
         <v>16</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>21</v>
@@ -15268,16 +15271,16 @@
         <v>16</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>21</v>
@@ -15313,16 +15316,16 @@
         <v>16</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>21</v>
@@ -15358,16 +15361,16 @@
         <v>16</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>21</v>
@@ -15403,16 +15406,16 @@
         <v>16</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H111" s="9" t="s">
         <v>21</v>
@@ -15427,10 +15430,10 @@
         <v>23</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M111" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N111" s="9" t="s">
         <v>23</v>
@@ -15450,7 +15453,7 @@
         <v>16</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>47</v>
@@ -15495,7 +15498,7 @@
         <v>16</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>52</v>
@@ -15540,7 +15543,7 @@
         <v>16</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>57</v>
@@ -15585,7 +15588,7 @@
         <v>16</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>59</v>
@@ -15630,7 +15633,7 @@
         <v>16</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>61</v>
@@ -15677,7 +15680,7 @@
         <v>16</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>66</v>
@@ -15724,7 +15727,7 @@
         <v>16</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>70</v>
@@ -15769,7 +15772,7 @@
         <v>16</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>73</v>
@@ -15814,7 +15817,7 @@
         <v>16</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>75</v>
@@ -15861,7 +15864,7 @@
         <v>16</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>138</v>
@@ -15870,7 +15873,7 @@
         <v>19</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H121" s="9" t="s">
         <v>21</v>
@@ -15906,7 +15909,7 @@
         <v>16</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>99</v>
@@ -15915,7 +15918,7 @@
         <v>19</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H122" s="9" t="s">
         <v>21</v>
@@ -15951,7 +15954,7 @@
         <v>16</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>47</v>
@@ -15996,7 +15999,7 @@
         <v>16</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>52</v>
@@ -16041,7 +16044,7 @@
         <v>16</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>57</v>
@@ -16086,7 +16089,7 @@
         <v>16</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>59</v>
@@ -16131,7 +16134,7 @@
         <v>16</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>61</v>
@@ -16178,7 +16181,7 @@
         <v>16</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>66</v>
@@ -16225,7 +16228,7 @@
         <v>16</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>70</v>
@@ -16270,7 +16273,7 @@
         <v>16</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>73</v>
@@ -16315,7 +16318,7 @@
         <v>16</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>75</v>
@@ -16362,7 +16365,7 @@
         <v>16</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>80</v>
@@ -16371,7 +16374,7 @@
         <v>19</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>21</v>
@@ -16407,7 +16410,7 @@
         <v>16</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>138</v>
@@ -16416,7 +16419,7 @@
         <v>19</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>21</v>
@@ -16452,7 +16455,7 @@
         <v>16</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>47</v>
@@ -16497,7 +16500,7 @@
         <v>16</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>52</v>
@@ -16542,7 +16545,7 @@
         <v>16</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>57</v>
@@ -16587,7 +16590,7 @@
         <v>16</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>59</v>
@@ -16632,7 +16635,7 @@
         <v>16</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>61</v>
@@ -16679,7 +16682,7 @@
         <v>16</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>66</v>
@@ -16726,7 +16729,7 @@
         <v>16</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>70</v>
@@ -16771,7 +16774,7 @@
         <v>16</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>73</v>
@@ -16816,7 +16819,7 @@
         <v>16</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>75</v>
@@ -16863,7 +16866,7 @@
         <v>16</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>138</v>
@@ -16872,7 +16875,7 @@
         <v>19</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H143" s="9" t="s">
         <v>21</v>
@@ -16908,7 +16911,7 @@
         <v>16</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>117</v>
@@ -16917,7 +16920,7 @@
         <v>19</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H144" s="9" t="s">
         <v>21</v>
@@ -16953,7 +16956,7 @@
         <v>16</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>47</v>
@@ -16998,7 +17001,7 @@
         <v>16</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>52</v>
@@ -17043,7 +17046,7 @@
         <v>16</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>57</v>
@@ -17088,7 +17091,7 @@
         <v>16</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>59</v>
@@ -17133,7 +17136,7 @@
         <v>16</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>61</v>
@@ -17180,7 +17183,7 @@
         <v>16</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>66</v>
@@ -17227,7 +17230,7 @@
         <v>16</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>70</v>
@@ -17272,7 +17275,7 @@
         <v>16</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>73</v>
@@ -17317,7 +17320,7 @@
         <v>16</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E153" s="7" t="s">
         <v>75</v>

--- a/1. Application/2. Specifications/1. Data_Catalogue/Data Catalogue.xlsx
+++ b/1. Application/2. Specifications/1. Data_Catalogue/Data Catalogue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Tables"/>
@@ -711,7 +711,7 @@
     <t>The associative table between users and specialization tables</t>
   </si>
   <si>
-    <t>The table contains information about any distinct  major geographical regions or areas of the world.</t>
+    <t>The table contains information about all distinct  major geographical regions or areas of the world.</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1213,7 @@
   </sheetPr>
   <dimension ref="A1:G1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10424,7 +10424,7 @@
   </sheetPr>
   <dimension ref="A1:O1032"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <pane state="frozen" activePane="topRight" topLeftCell="F1" ySplit="0" xSplit="5"/>
     </sheetView>
   </sheetViews>
